--- a/results/confuse_matrix_rate.xlsx
+++ b/results/confuse_matrix_rate.xlsx
@@ -424,10 +424,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -438,16 +438,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>61</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -458,16 +458,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F5" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">

--- a/results/confuse_matrix_rate.xlsx
+++ b/results/confuse_matrix_rate.xlsx
@@ -418,7 +418,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -427,7 +427,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -458,7 +458,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -467,7 +467,7 @@
         <v>62</v>
       </c>
       <c r="F5" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">

--- a/results/confuse_matrix_rate.xlsx
+++ b/results/confuse_matrix_rate.xlsx
@@ -66,6 +66,74 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -358,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -384,7 +452,25 @@
       <c r="E1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>All</t>
         </is>
@@ -392,47 +478,83 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>122</v>
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="F3" t="n">
-        <v>61</v>
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>22</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -441,55 +563,185 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>61</v>
+        <v>56</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>23</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E5" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>62</v>
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>40</v>
+      </c>
+      <c r="L5" t="n">
+        <v>196</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>60</v>
+      </c>
+      <c r="H7" t="n">
+        <v>16</v>
+      </c>
+      <c r="I7" t="n">
+        <v>62</v>
+      </c>
+      <c r="J7" t="n">
+        <v>58</v>
+      </c>
+      <c r="K7" t="n">
+        <v>21</v>
+      </c>
+      <c r="L7" t="n">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>All</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B8" t="n">
         <v>122</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C8" t="n">
         <v>61</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D8" t="n">
         <v>61</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E8" t="n">
+        <v>61</v>
+      </c>
+      <c r="F8" t="n">
+        <v>61</v>
+      </c>
+      <c r="G8" t="n">
+        <v>61</v>
+      </c>
+      <c r="H8" t="n">
         <v>62</v>
       </c>
-      <c r="F6" t="n">
-        <v>306</v>
+      <c r="I8" t="n">
+        <v>62</v>
+      </c>
+      <c r="J8" t="n">
+        <v>61</v>
+      </c>
+      <c r="K8" t="n">
+        <v>61</v>
+      </c>
+      <c r="L8" t="n">
+        <v>673</v>
       </c>
     </row>
   </sheetData>
